--- a/outcome/simulate data/B_Pertussis.xlsx
+++ b/outcome/simulate data/B_Pertussis.xlsx
@@ -412,19 +412,19 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>1190.34258470144</v>
+        <v>3123.76762877631</v>
       </c>
       <c r="C2" t="n">
-        <v>337.875409986823</v>
+        <v>1147.66315075345</v>
       </c>
       <c r="D2" t="n">
-        <v>173.475069179409</v>
+        <v>675.477973615097</v>
       </c>
       <c r="E2" t="n">
-        <v>4193.60340253514</v>
+        <v>8502.42877640934</v>
       </c>
       <c r="F2" t="n">
-        <v>8167.83342791645</v>
+        <v>14445.954686527</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>44713</v>
@@ -442,19 +442,19 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>1503.56578394994</v>
+        <v>3924.2098231138</v>
       </c>
       <c r="C3" t="n">
-        <v>421.883952460514</v>
+        <v>1418.25375701077</v>
       </c>
       <c r="D3" t="n">
-        <v>215.287698880392</v>
+        <v>827.511786062752</v>
       </c>
       <c r="E3" t="n">
-        <v>5358.60644492419</v>
+        <v>10858.0165289179</v>
       </c>
       <c r="F3" t="n">
-        <v>10500.8789560289</v>
+        <v>18609.3092511616</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>44743</v>
@@ -472,19 +472,19 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>1376.85937804073</v>
+        <v>4085.362689673</v>
       </c>
       <c r="C4" t="n">
-        <v>381.936582955782</v>
+        <v>1452.8195503725</v>
       </c>
       <c r="D4" t="n">
-        <v>193.725634006482</v>
+        <v>840.456819176651</v>
       </c>
       <c r="E4" t="n">
-        <v>4963.49873643338</v>
+        <v>11488.1358128013</v>
       </c>
       <c r="F4" t="n">
-        <v>9785.70418221099</v>
+        <v>19858.4721134426</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>44774</v>
@@ -502,19 +502,19 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>830.658437862407</v>
+        <v>2588.41305378199</v>
       </c>
       <c r="C5" t="n">
-        <v>227.823854910908</v>
+        <v>905.945492427256</v>
       </c>
       <c r="D5" t="n">
-        <v>114.865052212139</v>
+        <v>519.692566352819</v>
       </c>
       <c r="E5" t="n">
-        <v>3028.62683392764</v>
+        <v>7395.45832833536</v>
       </c>
       <c r="F5" t="n">
-        <v>6006.99191881006</v>
+        <v>12892.0107208932</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>44805</v>
@@ -532,19 +532,19 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>669.782323125833</v>
+        <v>1853.67267373792</v>
       </c>
       <c r="C6" t="n">
-        <v>181.647003937033</v>
+        <v>638.693086929874</v>
       </c>
       <c r="D6" t="n">
-        <v>91.0400524429677</v>
+        <v>363.355732124781</v>
       </c>
       <c r="E6" t="n">
-        <v>2469.67112393083</v>
+        <v>5379.89599649443</v>
       </c>
       <c r="F6" t="n">
-        <v>4927.59338701908</v>
+        <v>9456.57953782522</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>44835</v>
@@ -562,19 +562,19 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>597.980430341567</v>
+        <v>1611.87864487402</v>
       </c>
       <c r="C7" t="n">
-        <v>160.37662633159</v>
+        <v>546.866030917071</v>
       </c>
       <c r="D7" t="n">
-        <v>79.9066550647268</v>
+        <v>308.580438028209</v>
       </c>
       <c r="E7" t="n">
-        <v>2229.6303598017</v>
+        <v>4750.98583366736</v>
       </c>
       <c r="F7" t="n">
-        <v>4474.97889608612</v>
+        <v>8419.6936863619</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>44866</v>
@@ -592,19 +592,19 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>525.231976251218</v>
+        <v>1418.43248355756</v>
       </c>
       <c r="C8" t="n">
-        <v>139.317430510665</v>
+        <v>473.959567413573</v>
       </c>
       <c r="D8" t="n">
-        <v>69.0091170669399</v>
+        <v>265.293402422654</v>
       </c>
       <c r="E8" t="n">
-        <v>1980.14439302799</v>
+        <v>4244.98385250586</v>
       </c>
       <c r="F8" t="n">
-        <v>3997.56786641921</v>
+        <v>7583.87013034695</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>44896</v>
@@ -622,19 +622,19 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>651.552478114564</v>
+        <v>1618.02755650527</v>
       </c>
       <c r="C9" t="n">
-        <v>170.939936553328</v>
+        <v>532.59029838345</v>
       </c>
       <c r="D9" t="n">
-        <v>84.1830539244456</v>
+        <v>295.749573642852</v>
       </c>
       <c r="E9" t="n">
-        <v>2483.44910087638</v>
+        <v>4915.62310007669</v>
       </c>
       <c r="F9" t="n">
-        <v>5042.82764697795</v>
+        <v>8852.12831032495</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>44927</v>
@@ -652,19 +652,19 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>788.126615461615</v>
+        <v>1889.15501537718</v>
       </c>
       <c r="C10" t="n">
-        <v>204.535477448854</v>
+        <v>612.684234815884</v>
       </c>
       <c r="D10" t="n">
-        <v>100.149868909205</v>
+        <v>337.566538122251</v>
       </c>
       <c r="E10" t="n">
-        <v>3036.84998684057</v>
+        <v>5825.03428245914</v>
       </c>
       <c r="F10" t="n">
-        <v>6202.14053961573</v>
+        <v>10572.4539285712</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>44958</v>
@@ -682,19 +682,19 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>909.889255934588</v>
+        <v>2558.74040381871</v>
       </c>
       <c r="C11" t="n">
-        <v>233.602485194522</v>
+        <v>817.788080148925</v>
       </c>
       <c r="D11" t="n">
-        <v>113.731240610708</v>
+        <v>447.094738721742</v>
       </c>
       <c r="E11" t="n">
-        <v>3544.04816102793</v>
+        <v>8005.92795745084</v>
       </c>
       <c r="F11" t="n">
-        <v>7279.42870946973</v>
+        <v>14643.7698480927</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>44986</v>
@@ -712,19 +712,19 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>859.816455730824</v>
+        <v>2438.46204713652</v>
       </c>
       <c r="C12" t="n">
-        <v>218.397569155895</v>
+        <v>768.168468180951</v>
       </c>
       <c r="D12" t="n">
-        <v>105.728047324633</v>
+        <v>416.767615825022</v>
       </c>
       <c r="E12" t="n">
-        <v>3385.03922183221</v>
+        <v>7740.61602581239</v>
       </c>
       <c r="F12" t="n">
-        <v>6992.31997802416</v>
+        <v>14267.1765500649</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>45017</v>
@@ -742,19 +742,19 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>1061.18775464597</v>
+        <v>2844.17790538849</v>
       </c>
       <c r="C13" t="n">
-        <v>266.700239041486</v>
+        <v>883.284612723491</v>
       </c>
       <c r="D13" t="n">
-        <v>128.388157889283</v>
+        <v>475.617568730886</v>
       </c>
       <c r="E13" t="n">
-        <v>4222.41635274791</v>
+        <v>9158.257532142</v>
       </c>
       <c r="F13" t="n">
-        <v>8771.20965924027</v>
+        <v>17008.0932440853</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>45047</v>
@@ -772,19 +772,19 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>1190.34258470144</v>
+        <v>3123.76762877631</v>
       </c>
       <c r="C14" t="n">
-        <v>296.024360264657</v>
+        <v>956.534763713943</v>
       </c>
       <c r="D14" t="n">
-        <v>141.712052268052</v>
+        <v>511.231094317143</v>
       </c>
       <c r="E14" t="n">
-        <v>4786.48266543646</v>
+        <v>10201.327300122</v>
       </c>
       <c r="F14" t="n">
-        <v>9998.55302549402</v>
+        <v>19087.110128981</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>45078</v>
@@ -802,19 +802,19 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>1503.56578394994</v>
+        <v>3924.2098231138</v>
       </c>
       <c r="C15" t="n">
-        <v>370.029717888971</v>
+        <v>1185.01665305299</v>
       </c>
       <c r="D15" t="n">
-        <v>176.161871964644</v>
+        <v>628.692649086649</v>
       </c>
       <c r="E15" t="n">
-        <v>6109.53649766946</v>
+        <v>12995.1108249398</v>
       </c>
       <c r="F15" t="n">
-        <v>12833.1405737941</v>
+        <v>24494.3578681805</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>45108</v>
@@ -832,19 +832,19 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>1376.85937804073</v>
+        <v>4085.362689673</v>
       </c>
       <c r="C16" t="n">
-        <v>335.348268769706</v>
+        <v>1216.8095855825</v>
       </c>
       <c r="D16" t="n">
-        <v>158.776108822309</v>
+        <v>640.871279448773</v>
       </c>
       <c r="E16" t="n">
-        <v>5653.05362646906</v>
+        <v>13716.3517644237</v>
       </c>
       <c r="F16" t="n">
-        <v>11939.7166296618</v>
+        <v>26042.965009335</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>45139</v>
@@ -862,19 +862,19 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>830.658437862407</v>
+        <v>2588.41305378199</v>
       </c>
       <c r="C17" t="n">
-        <v>200.241531869427</v>
+        <v>760.523408634225</v>
       </c>
       <c r="D17" t="n">
-        <v>94.2919086414059</v>
+        <v>397.677133926368</v>
       </c>
       <c r="E17" t="n">
-        <v>3445.80584232618</v>
+        <v>8809.56728080325</v>
       </c>
       <c r="F17" t="n">
-        <v>7317.63149493637</v>
+        <v>16847.5418006546</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>45170</v>
@@ -892,19 +892,19 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>669.782323125833</v>
+        <v>1853.67267373792</v>
       </c>
       <c r="C18" t="n">
-        <v>159.816910779326</v>
+        <v>537.358428372366</v>
       </c>
       <c r="D18" t="n">
-        <v>74.8498982336053</v>
+        <v>278.988538473076</v>
       </c>
       <c r="E18" t="n">
-        <v>2807.01434024885</v>
+        <v>6394.43284023756</v>
       </c>
       <c r="F18" t="n">
-        <v>5993.43981700199</v>
+        <v>12316.2851067959</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>45200</v>
@@ -922,19 +922,19 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>597.980430341567</v>
+        <v>1611.87864487402</v>
       </c>
       <c r="C19" t="n">
-        <v>141.242333881573</v>
+        <v>461.082124166232</v>
       </c>
       <c r="D19" t="n">
-        <v>65.7958123464943</v>
+        <v>237.704908016431</v>
       </c>
       <c r="E19" t="n">
-        <v>2531.68143887586</v>
+        <v>5634.90239509741</v>
       </c>
       <c r="F19" t="n">
-        <v>5434.70142428506</v>
+        <v>10930.160371873</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>45231</v>
@@ -952,19 +952,19 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>525.231976251218</v>
+        <v>1418.43248355756</v>
       </c>
       <c r="C20" t="n">
-        <v>122.814251825366</v>
+        <v>400.433556496048</v>
       </c>
       <c r="D20" t="n">
-        <v>56.906692107311</v>
+        <v>205.002967290295</v>
       </c>
       <c r="E20" t="n">
-        <v>2246.22651505484</v>
+        <v>5024.43083945472</v>
       </c>
       <c r="F20" t="n">
-        <v>4847.73615652347</v>
+        <v>9814.25165208585</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>45261</v>
@@ -982,19 +982,19 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>651.552478114564</v>
+        <v>1618.02755650527</v>
       </c>
       <c r="C21" t="n">
-        <v>150.833183757287</v>
+        <v>450.8609298022</v>
       </c>
       <c r="D21" t="n">
-        <v>69.5198238239734</v>
+        <v>229.231005037015</v>
       </c>
       <c r="E21" t="n">
-        <v>2814.5042169258</v>
+        <v>5806.69780980798</v>
       </c>
       <c r="F21" t="n">
-        <v>6106.46875072829</v>
+        <v>11420.85108944</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>45292</v>
@@ -1012,19 +1012,19 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>788.126615461615</v>
+        <v>1889.15501537718</v>
       </c>
       <c r="C22" t="n">
-        <v>180.64375721721</v>
+        <v>519.656575786527</v>
       </c>
       <c r="D22" t="n">
-        <v>82.8223539815233</v>
+        <v>262.408901580328</v>
       </c>
       <c r="E22" t="n">
-        <v>3438.50001554221</v>
+        <v>6867.81778277902</v>
       </c>
       <c r="F22" t="n">
-        <v>7499.70910193581</v>
+        <v>13600.554899744</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>45323</v>
@@ -1042,19 +1042,19 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>909.889255934588</v>
+        <v>2558.74040381871</v>
       </c>
       <c r="C23" t="n">
-        <v>206.501851102603</v>
+        <v>694.900702552009</v>
       </c>
       <c r="D23" t="n">
-        <v>94.1839176651673</v>
+        <v>348.534418955442</v>
       </c>
       <c r="E23" t="n">
-        <v>4009.15756272735</v>
+        <v>9421.70936090588</v>
       </c>
       <c r="F23" t="n">
-        <v>8790.23169336039</v>
+        <v>18784.8088970844</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>45352</v>
@@ -1072,19 +1072,19 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>859.816455730824</v>
+        <v>2438.46204713652</v>
       </c>
       <c r="C24" t="n">
-        <v>193.231542426555</v>
+        <v>653.90423012063</v>
       </c>
       <c r="D24" t="n">
-        <v>87.6746519595101</v>
+        <v>325.781488633005</v>
       </c>
       <c r="E24" t="n">
-        <v>3825.89885823899</v>
+        <v>9093.22326027516</v>
       </c>
       <c r="F24" t="n">
-        <v>8432.1331311008</v>
+        <v>18251.7956446062</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>45383</v>
@@ -1102,19 +1102,19 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>1061.18775464597</v>
+        <v>2844.17790538849</v>
       </c>
       <c r="C25" t="n">
-        <v>236.172433002643</v>
+        <v>753.197579781889</v>
       </c>
       <c r="D25" t="n">
-        <v>106.606381953651</v>
+        <v>372.767670861579</v>
       </c>
       <c r="E25" t="n">
-        <v>4768.2087036718</v>
+        <v>10740.0079005068</v>
       </c>
       <c r="F25" t="n">
-        <v>10563.3399236844</v>
+        <v>21700.7766226162</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>45413</v>
@@ -1132,19 +1132,19 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>1190.34258470144</v>
+        <v>3123.76762877631</v>
       </c>
       <c r="C26" t="n">
-        <v>262.362017501192</v>
+        <v>817.025869624281</v>
       </c>
       <c r="D26" t="n">
-        <v>117.82227145439</v>
+        <v>401.70677351353</v>
       </c>
       <c r="E26" t="n">
-        <v>5400.61203389421</v>
+        <v>11943.2254979614</v>
       </c>
       <c r="F26" t="n">
-        <v>12025.8712674895</v>
+        <v>24291.1617178945</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>45444</v>
@@ -1162,19 +1162,19 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>1503.56578394994</v>
+        <v>3924.2098231138</v>
       </c>
       <c r="C27" t="n">
-        <v>328.223923169516</v>
+        <v>1013.82677289218</v>
       </c>
       <c r="D27" t="n">
-        <v>146.65040664337</v>
+        <v>495.230447689719</v>
       </c>
       <c r="E27" t="n">
-        <v>6887.70655360616</v>
+        <v>15189.4023195821</v>
       </c>
       <c r="F27" t="n">
-        <v>15415.6413092169</v>
+        <v>31095.4683979187</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>45474</v>
@@ -1192,19 +1192,19 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>1376.85937804073</v>
+        <v>4085.362689673</v>
       </c>
       <c r="C28" t="n">
-        <v>297.702496537591</v>
+        <v>1042.66496056539</v>
       </c>
       <c r="D28" t="n">
-        <v>132.341496230898</v>
+        <v>506.039130296108</v>
       </c>
       <c r="E28" t="n">
-        <v>6367.90678260011</v>
+        <v>16007.2400410597</v>
       </c>
       <c r="F28" t="n">
-        <v>14324.620779496</v>
+        <v>32982.0112851865</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>45505</v>
@@ -1222,19 +1222,19 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>830.658437862407</v>
+        <v>2588.41305378199</v>
       </c>
       <c r="C29" t="n">
-        <v>177.904222994465</v>
+        <v>652.675433243939</v>
       </c>
       <c r="D29" t="n">
-        <v>78.6889953166631</v>
+        <v>314.743778092629</v>
       </c>
       <c r="E29" t="n">
-        <v>3878.45453456988</v>
+        <v>10265.2586503665</v>
       </c>
       <c r="F29" t="n">
-        <v>8768.61418315633</v>
+        <v>21286.7818312115</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>45536</v>
@@ -1252,19 +1252,19 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>669.782323125833</v>
+        <v>1853.67267373792</v>
       </c>
       <c r="C30" t="n">
-        <v>142.099864794913</v>
+        <v>461.84041107433</v>
       </c>
       <c r="D30" t="n">
-        <v>62.5387204141876</v>
+        <v>221.307719591479</v>
       </c>
       <c r="E30" t="n">
-        <v>3156.99357644918</v>
+        <v>7440.02105266116</v>
       </c>
       <c r="F30" t="n">
-        <v>7173.28972196344</v>
+        <v>15526.3557353785</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>45566</v>
@@ -1282,19 +1282,19 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>597.980430341567</v>
+        <v>1611.87864487402</v>
       </c>
       <c r="C31" t="n">
-        <v>125.680535325031</v>
+        <v>396.854150069513</v>
       </c>
       <c r="D31" t="n">
-        <v>55.0381834718647</v>
+        <v>188.9747856003</v>
       </c>
       <c r="E31" t="n">
-        <v>2845.15493307474</v>
+        <v>6546.87059552182</v>
       </c>
       <c r="F31" t="n">
-        <v>6496.95488686103</v>
+        <v>13748.6742347535</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>45597</v>
@@ -1312,19 +1312,19 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>525.231976251218</v>
+        <v>1418.43248355756</v>
       </c>
       <c r="C32" t="n">
-        <v>109.364831901827</v>
+        <v>345.136058540459</v>
       </c>
       <c r="D32" t="n">
-        <v>47.6570797503332</v>
+        <v>163.32570343948</v>
       </c>
       <c r="E32" t="n">
-        <v>2522.46196587581</v>
+        <v>5829.4422174246</v>
       </c>
       <c r="F32" t="n">
-        <v>5788.61798335076</v>
+        <v>12318.6410224573</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>45627</v>
@@ -1342,19 +1342,19 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>651.552478114564</v>
+        <v>1618.02755650527</v>
       </c>
       <c r="C33" t="n">
-        <v>134.414275113036</v>
+        <v>389.128434495962</v>
       </c>
       <c r="D33" t="n">
-        <v>58.2856297657589</v>
+        <v>183.008318586346</v>
       </c>
       <c r="E33" t="n">
-        <v>3158.30019825073</v>
+        <v>6727.88966707493</v>
       </c>
       <c r="F33" t="n">
-        <v>7283.45277289297</v>
+        <v>14305.4326373433</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>45658</v>
@@ -1372,19 +1372,19 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>788.126615461615</v>
+        <v>1889.15501537718</v>
       </c>
       <c r="C34" t="n">
-        <v>161.096093579336</v>
+        <v>449.098192705855</v>
       </c>
       <c r="D34" t="n">
-        <v>69.51522652164</v>
+        <v>209.920417507949</v>
       </c>
       <c r="E34" t="n">
-        <v>3855.73323472975</v>
+        <v>7946.82929054291</v>
       </c>
       <c r="F34" t="n">
-        <v>8935.35982085333</v>
+        <v>17001.2365376018</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>45689</v>
@@ -1402,19 +1402,19 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>909.889255934588</v>
+        <v>2558.74040381871</v>
       </c>
       <c r="C35" t="n">
-        <v>184.286586469148</v>
+        <v>601.321702913711</v>
       </c>
       <c r="D35" t="n">
-        <v>79.1370302035196</v>
+        <v>279.368275207942</v>
       </c>
       <c r="E35" t="n">
-        <v>4492.4509912923</v>
+        <v>10887.936394795</v>
       </c>
       <c r="F35" t="n">
-        <v>10461.5810820303</v>
+        <v>23435.5617124424</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>45717</v>
@@ -1432,19 +1432,19 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>859.816455730824</v>
+        <v>2438.46204713652</v>
       </c>
       <c r="C36" t="n">
-        <v>172.563869293819</v>
+        <v>566.556102447654</v>
       </c>
       <c r="D36" t="n">
-        <v>73.746094953946</v>
+        <v>261.63195296273</v>
       </c>
       <c r="E36" t="n">
-        <v>4284.12008012385</v>
+        <v>10495.1603727093</v>
       </c>
       <c r="F36" t="n">
-        <v>10024.7252143615</v>
+        <v>22726.9532180278</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>45748</v>
@@ -1462,19 +1462,19 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>1061.18775464597</v>
+        <v>2844.17790538849</v>
       </c>
       <c r="C37" t="n">
-        <v>211.055972030228</v>
+        <v>653.383801702066</v>
       </c>
       <c r="D37" t="n">
-        <v>89.76391394686</v>
+        <v>299.926067746877</v>
       </c>
       <c r="E37" t="n">
-        <v>5335.64361992685</v>
+        <v>12380.6986589311</v>
       </c>
       <c r="F37" t="n">
-        <v>12545.3470230499</v>
+        <v>26971.1399821607</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>45778</v>
